--- a/Temperatura.xlsx
+++ b/Temperatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\Work\proyecto-fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3BA42-938C-4EF6-86B6-9A4FDD78200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872CEC9-08F6-4FF2-9952-DCFE8976C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC4D1270-A9D8-4A1A-8E77-9EE5D64A97B9}"/>
   </bookViews>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,10 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +439,7 @@
   <dimension ref="C4:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,18 +450,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>9.86</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
